--- a/output/StructureDefinition-PADI-CareExperiencePreference.xlsx
+++ b/output/StructureDefinition-PADI-CareExperiencePreference.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="411">
   <si>
     <t>Path</t>
   </si>
@@ -469,6 +469,9 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -543,13 +546,10 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pacio-adi/ValueSet/PADICareExperiencePreferencesVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -794,9 +794,6 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -883,6 +880,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1257,6 +1257,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1479,7 +1485,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3027,7 +3033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>139</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>55</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>56</v>
@@ -3074,7 +3080,7 @@
         <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>45</v>
@@ -3089,13 +3095,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3128,19 +3134,19 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3148,7 +3154,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3171,19 +3177,19 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3211,10 +3217,10 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3232,7 +3238,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3256,22 +3262,22 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3281,7 +3287,7 @@
         <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
@@ -3290,19 +3296,19 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3327,11 +3333,9 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X16" t="s" s="2">
         <v>169</v>
       </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
         <v>170</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -4092,7 +4096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>232</v>
       </c>
@@ -4102,13 +4106,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4236,7 +4240,7 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>244</v>
@@ -4273,13 +4277,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4306,7 +4310,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4321,7 +4325,7 @@
         <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4332,11 +4336,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4355,19 +4359,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4392,14 +4396,14 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4416,7 +4420,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4434,24 +4438,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>264</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4465,7 +4469,7 @@
         <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4474,19 +4478,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4535,7 +4539,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4556,10 +4560,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4570,7 +4574,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4593,16 +4597,16 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4628,7 +4632,7 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>277</v>
@@ -4652,7 +4656,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4710,7 +4714,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>284</v>
@@ -4747,7 +4751,7 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>288</v>
@@ -5763,7 +5767,7 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>344</v>
@@ -5848,7 +5852,7 @@
         <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5882,7 +5886,7 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>353</v>
@@ -5919,7 +5923,7 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>357</v>
@@ -5967,7 +5971,7 @@
         <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6937,7 +6941,7 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>393</v>
@@ -6949,7 +6953,7 @@
         <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6974,13 +6978,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>396</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>170</v>
+        <v>397</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7016,7 +7020,7 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>173</v>
@@ -7033,7 +7037,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7059,13 +7063,13 @@
         <v>233</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>235</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>237</v>
@@ -7117,7 +7121,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7135,7 +7139,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>240</v>
@@ -7152,7 +7156,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7175,16 +7179,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>247</v>
@@ -7212,14 +7216,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X49" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="X49" t="s" s="2">
+      <c r="Y49" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7245,7 +7249,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7260,7 +7264,7 @@
         <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7271,11 +7275,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7294,19 +7298,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7331,14 +7335,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7355,7 +7359,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7373,24 +7377,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,10 +7420,10 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>314</v>
@@ -7474,7 +7478,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>

--- a/output/StructureDefinition-PADI-CareExperiencePreference.xlsx
+++ b/output/StructureDefinition-PADI-CareExperiencePreference.xlsx
@@ -2212,7 +2212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>83</v>
       </c>
@@ -2222,13 +2222,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>45</v>

--- a/output/StructureDefinition-PADI-CareExperiencePreference.xlsx
+++ b/output/StructureDefinition-PADI-CareExperiencePreference.xlsx
@@ -1461,47 +1461,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.11328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.734375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
